--- a/src/public/templates/template-karyawan.xlsx
+++ b/src/public/templates/template-karyawan.xlsx
@@ -1,34 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a98d17813a983a49/Dokumen/KULIAH/Semester 6 - TI/Magang/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{47ABF467-4E69-4F47-9EF2-98C282960974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82619A30-6AF7-44B2-AF10-B17328FAA838}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Karyawan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Karyawan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+  <si>
+    <t>id_karyawan</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>gaji_perbulan</t>
+  </si>
+  <si>
+    <t>gaji_lembur</t>
+  </si>
+  <si>
+    <t>gaji_harian</t>
+  </si>
+  <si>
+    <t>harian tetap</t>
+  </si>
+  <si>
+    <t>kodi</t>
+  </si>
+  <si>
+    <t>koda</t>
+  </si>
+  <si>
+    <t>kodu</t>
+  </si>
+  <si>
+    <t>jumbo</t>
+  </si>
+  <si>
+    <t>adit</t>
+  </si>
+  <si>
+    <t>sopo</t>
+  </si>
+  <si>
+    <t>jarwo</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>lokasi</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,81 +104,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,100 +410,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.41796875" customWidth="1"/>
+    <col min="3" max="3" width="10.26171875" customWidth="1"/>
+    <col min="4" max="4" width="11.3125" customWidth="1"/>
+    <col min="5" max="5" width="16.68359375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.47265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id_karyawan</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nama</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>posisi</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>bagian</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gaji_perbulan</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>gaji_lembur</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>gaji_harian</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2600000</v>
+      </c>
+      <c r="F2">
+        <v>124000</v>
+      </c>
+      <c r="G2">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2600001</v>
+      </c>
+      <c r="F3">
+        <v>124000</v>
+      </c>
+      <c r="G3">
+        <v>33001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2600002</v>
+      </c>
+      <c r="F4">
+        <v>124000</v>
+      </c>
+      <c r="G4">
+        <v>33002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2600003</v>
+      </c>
+      <c r="F5">
+        <v>124000</v>
+      </c>
+      <c r="G5">
+        <v>33003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2600004</v>
+      </c>
+      <c r="F6">
+        <v>124000</v>
+      </c>
+      <c r="G6">
+        <v>33004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2600005</v>
+      </c>
+      <c r="F7">
+        <v>124000</v>
+      </c>
+      <c r="G7">
+        <v>33005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2600006</v>
+      </c>
+      <c r="F8">
+        <v>124000</v>
+      </c>
+      <c r="G8">
+        <v>33006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/public/templates/template-karyawan.xlsx
+++ b/src/public/templates/template-karyawan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a98d17813a983a49/Dokumen/KULIAH/Semester 6 - TI/Magang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{47ABF467-4E69-4F47-9EF2-98C282960974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82619A30-6AF7-44B2-AF10-B17328FAA838}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{47ABF467-4E69-4F47-9EF2-98C282960974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E72998E9-6AEE-497B-9B17-2123B959DF92}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>id_karyawan</t>
   </si>
@@ -31,9 +31,6 @@
     <t>gaji_perbulan</t>
   </si>
   <si>
-    <t>gaji_lembur</t>
-  </si>
-  <si>
     <t>gaji_harian</t>
   </si>
   <si>
@@ -68,6 +65,48 @@
   </si>
   <si>
     <t>workshop</t>
+  </si>
+  <si>
+    <t>harian lepas</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>proyek</t>
+  </si>
+  <si>
+    <t>gaji_lembur_reguler</t>
+  </si>
+  <si>
+    <t>gaji_lembur_sabtu</t>
+  </si>
+  <si>
+    <t>gaji_lembur_minggu_haribesar</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>jenis_proyek</t>
   </si>
 </sst>
 </file>
@@ -411,23 +450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.41796875" customWidth="1"/>
     <col min="3" max="3" width="10.26171875" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" customWidth="1"/>
-    <col min="5" max="5" width="16.68359375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="17.47265625" customWidth="1"/>
+    <col min="4" max="5" width="11.3125" customWidth="1"/>
+    <col min="6" max="6" width="16.68359375" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="25.15625" customWidth="1"/>
+    <col min="10" max="10" width="17.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,179 +475,251 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>2600000</v>
       </c>
-      <c r="F2">
-        <v>124000</v>
-      </c>
       <c r="G2">
+        <v>26000</v>
+      </c>
+      <c r="H2">
+        <v>35000</v>
+      </c>
+      <c r="I2">
+        <v>50000</v>
+      </c>
+      <c r="J2">
         <v>33000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>2600001</v>
       </c>
-      <c r="F3">
-        <v>124000</v>
-      </c>
       <c r="G3">
+        <v>26000</v>
+      </c>
+      <c r="H3">
+        <v>35000</v>
+      </c>
+      <c r="I3">
+        <v>50000</v>
+      </c>
+      <c r="J3">
         <v>33001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>2600002</v>
       </c>
-      <c r="F4">
-        <v>124000</v>
-      </c>
       <c r="G4">
+        <v>26000</v>
+      </c>
+      <c r="H4">
+        <v>35000</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="J4">
         <v>33002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
         <v>2600003</v>
       </c>
-      <c r="F5">
-        <v>124000</v>
-      </c>
       <c r="G5">
+        <v>26000</v>
+      </c>
+      <c r="H5">
+        <v>35000</v>
+      </c>
+      <c r="I5">
+        <v>50000</v>
+      </c>
+      <c r="J5">
         <v>33003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
         <v>2600004</v>
       </c>
-      <c r="F6">
-        <v>124000</v>
-      </c>
       <c r="G6">
+        <v>26000</v>
+      </c>
+      <c r="H6">
+        <v>35000</v>
+      </c>
+      <c r="I6">
+        <v>50000</v>
+      </c>
+      <c r="J6">
         <v>33004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
         <v>2600005</v>
       </c>
-      <c r="F7">
-        <v>124000</v>
-      </c>
       <c r="G7">
+        <v>26000</v>
+      </c>
+      <c r="H7">
+        <v>35000</v>
+      </c>
+      <c r="I7">
+        <v>50000</v>
+      </c>
+      <c r="J7">
         <v>33005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
         <v>2600006</v>
       </c>
-      <c r="F8">
-        <v>124000</v>
-      </c>
       <c r="G8">
+        <v>26000</v>
+      </c>
+      <c r="H8">
+        <v>35000</v>
+      </c>
+      <c r="I8">
+        <v>50000</v>
+      </c>
+      <c r="J8">
         <v>33006</v>
       </c>
     </row>
